--- a/Documentation/Project Documentationxlsx.xlsx
+++ b/Documentation/Project Documentationxlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharmon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharmon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE8128-F9C3-4D56-AA59-109F5233F384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B47E015-E50A-47EA-BC90-09E494BBD623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43023B97-175D-4741-BF9E-A7E0D2F3F4E1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t>Step 1</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Step 4</t>
   </si>
   <si>
-    <t>Run logistic regression on data</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>table 3c</t>
+  </si>
+  <si>
+    <t>size (avg)</t>
+  </si>
+  <si>
+    <t>Run classification on data</t>
   </si>
 </sst>
 </file>
@@ -213,18 +225,18 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0368431-8CB9-464A-8CC5-0B831723AC16}">
-  <dimension ref="H2:P76"/>
+  <dimension ref="H2:P85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:M59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,117 +567,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="6" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="J6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>100</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>100</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>150</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>500</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
         <v>400</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>1000</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>1000</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>250</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -675,572 +687,621 @@
       </c>
     </row>
     <row r="14" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
         <v>100</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>150</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K17" s="2">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2">
         <v>400</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>1000</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>100</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>500</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>1000</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>250</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J30" s="2" t="s">
+      <c r="L28" s="7"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1">
+        <v>750</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="1">
+        <v>250</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="J40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="L40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J31" s="2" t="s">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K41" s="1">
+        <v>750</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1">
+        <v>500</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="1">
+        <v>250</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
         <v>100</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="L51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="1">
+        <v>100</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="2" t="s">
+    <row r="52" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2">
+        <v>150</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="2">
+      <c r="N52" s="1">
         <v>500</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J33" s="2" t="s">
+      <c r="O52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J53" s="1">
+        <v>3</v>
+      </c>
+      <c r="K53" s="2">
+        <v>400</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="2">
+      <c r="N53" s="1">
         <v>1000</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="O53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J34" s="2" t="s">
+    <row r="54" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="2">
+      <c r="N54" s="1">
         <v>250</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="K37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="O54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="L57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="1">
         <v>2</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="K59" s="2">
+        <v>150</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J60" s="1">
+        <v>3</v>
+      </c>
+      <c r="K60" s="2">
+        <v>400</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J61" s="1">
         <v>4</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="5" t="s">
+      <c r="K61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="K65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="K66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="68" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="J69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
         <v>100</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="2">
-        <v>100</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="2">
+      <c r="L70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="2">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="1">
         <v>2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K71" s="2">
         <v>150</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="2">
-        <v>500</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J44" s="2">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="J72" s="1">
+        <v>3</v>
+      </c>
+      <c r="K72" s="2">
         <v>400</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N44" s="2">
+      <c r="L72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="J73" s="1">
+        <v>4</v>
+      </c>
+      <c r="K73" s="2">
         <v>1000</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J45" s="2">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N45" s="2">
-        <v>250</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="J48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="L73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="K76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="80" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="L80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="J81" s="1">
+        <v>5</v>
+      </c>
+      <c r="K81" s="2">
+        <v>7000</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="K84" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3">
-        <v>100</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="2">
-        <v>2</v>
-      </c>
-      <c r="K50" s="3">
-        <v>150</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J51" s="2">
-        <v>3</v>
-      </c>
-      <c r="K51" s="3">
-        <v>400</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J52" s="2">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="K57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J59" t="s">
-        <v>25</v>
-      </c>
-      <c r="K59" t="s">
-        <v>25</v>
-      </c>
-      <c r="L59" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="2">
-        <v>2</v>
-      </c>
-      <c r="K62" s="3">
-        <v>150</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J63" s="2">
-        <v>3</v>
-      </c>
-      <c r="K63" s="3">
-        <v>400</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="J64" s="2">
-        <v>4</v>
-      </c>
-      <c r="K64" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="K67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H68" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-    </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H71" s="6" t="s">
+    <row r="85" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="J72" s="2">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="K75" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H76" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="2">
+      <c r="K85" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="H68:O68"/>
+  <mergeCells count="11">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H77:O77"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
